--- a/biology/Botanique/Entopylaceae/Entopylaceae.xlsx
+++ b/biology/Botanique/Entopylaceae/Entopylaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Entopylaceae sont une famille d'algues de l'embranchement des Bacillariophyta, de la classe des Bacillariophyceae et de l’ordre des Cyclophorales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Entopylaceae est attribuée, en 1862, au phycologue germano-autrichien Albert Grunow (en) (1826-1914)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Entopylaceae est attribuée, en 1862, au phycologue germano-autrichien Albert Grunow (en) (1826-1914).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Entopyla, composé du  préfixe ento-, « en dedans », et du suffixe -pyla, porte ; littéralement « porte interne », sans doute en référence aux pores internes qui permettent l'extrusion du mucilage nécessaire à l'accolement des cellules de cette diatomée, lors de la formation des colonies.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Entopyla constitue des cellules coloniales, unies par le mucilage extrudé par le champ de pores apical de la valve concave pour former des chaînes en forme de ruban. En « vue en ceinture », les frustules sont courbés, présentant une valve concave, l'autre convexe[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Entopyla constitue des cellules coloniales, unies par le mucilage extrudé par le champ de pores apical de la valve concave pour former des chaînes en forme de ruban. En « vue en ceinture », les frustules sont courbés, présentant une valve concave, l'autre convexe. 
 </t>
         </is>
       </c>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,9 +650,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (30 avril 2022)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (30 avril 2022) :
 Entopyla Ehrenberg, 1848
 Gephyria Arnott, 1858</t>
         </is>
